--- a/results/agr_g/scores_agr_g.xlsx
+++ b/results/agr_g/scores_agr_g.xlsx
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8469</v>
+        <v>0.843</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8024</v>
+        <v>0.8018</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8272</v>
+        <v>0.8346</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8241000000000001</v>
+        <v>0.8216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7969000000000001</v>
+        <v>0.7818000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7991</v>
+        <v>0.7994</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1072</v>
+        <v>0.0979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.1111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1166</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="5">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8295</v>
+        <v>0.83</v>
       </c>
       <c r="E5" t="n">
         <v>0.805</v>
       </c>
       <c r="F5" t="n">
-        <v>0.806</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.828</v>
+        <v>0.8315</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8025</v>
+        <v>0.79</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8141</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1157</v>
+        <v>0.1039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1015</v>
+        <v>0.1149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1081</v>
+        <v>0.1163</v>
       </c>
     </row>
     <row r="8">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>194.8899</v>
+        <v>1950.9871</v>
       </c>
       <c r="E8" t="n">
-        <v>190.8321</v>
+        <v>204.6233</v>
       </c>
       <c r="F8" t="n">
-        <v>706.2045000000001</v>
+        <v>780.2030999999999</v>
       </c>
     </row>
     <row r="9">
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.5847</v>
+        <v>5.7907</v>
       </c>
       <c r="E9" t="n">
-        <v>12.8801</v>
+        <v>13.972</v>
       </c>
       <c r="F9" t="n">
-        <v>13.4848</v>
+        <v>15.5495</v>
       </c>
     </row>
   </sheetData>

--- a/results/agr_g/scores_agr_g.xlsx
+++ b/results/agr_g/scores_agr_g.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.843</v>
+        <v>0.8724</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8018</v>
+        <v>0.8178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8346</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8216</v>
+        <v>0.8347</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.8033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7994</v>
+        <v>0.8072</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0979</v>
+        <v>0.0898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1111</v>
+        <v>0.0921</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1406</v>
+        <v>0.1354</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.83</v>
+        <v>0.4439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.805</v>
+        <v>0.5188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.83</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="6">
@@ -495,22 +495,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8315</v>
+        <v>0.9483</v>
       </c>
       <c r="E6" t="n">
-        <v>0.79</v>
+        <v>0.9520999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8141</v>
+        <v>0.9644</v>
       </c>
     </row>
     <row r="7">
@@ -519,22 +519,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1039</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1149</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1163</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -543,22 +549,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>training time</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>median</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1950.9871</v>
+        <v>0.855</v>
       </c>
       <c r="E8" t="n">
-        <v>204.6233</v>
+        <v>0.819</v>
       </c>
       <c r="F8" t="n">
-        <v>780.2030999999999</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="9">
@@ -567,22 +573,322 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8386</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8098</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8174</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0992</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7015</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6395999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6697</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6086</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6219</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1939</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1921</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2447</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0771</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1367</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.0396</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9207</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9303</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training time</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>651.3753</v>
+      </c>
+      <c r="E20" t="n">
+        <v>234.1785</v>
+      </c>
+      <c r="F20" t="n">
+        <v>710.4694</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>prediction time</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>5.7907</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.972</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.5495</v>
+      <c r="D21" t="n">
+        <v>2.9219</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.9307</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14.6658</v>
       </c>
     </row>
   </sheetData>

--- a/results/agr_g/scores_agr_g.xlsx
+++ b/results/agr_g/scores_agr_g.xlsx
@@ -408,7 +408,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8724</v>
+        <v>0.8569</v>
       </c>
       <c r="E2" t="n">
         <v>0.8178</v>
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8347</v>
+        <v>0.8295</v>
       </c>
       <c r="E3" t="n">
         <v>0.8033</v>
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0898</v>
+        <v>0.0897</v>
       </c>
       <c r="E4" t="n">
         <v>0.0921</v>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4439</v>
+        <v>0.5652</v>
       </c>
       <c r="E5" t="n">
         <v>0.5188</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.855</v>
+        <v>0.844</v>
       </c>
       <c r="E8" t="n">
         <v>0.819</v>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8386</v>
+        <v>0.834</v>
       </c>
       <c r="E9" t="n">
         <v>0.8098</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1009</v>
+        <v>0.1021</v>
       </c>
       <c r="E10" t="n">
         <v>0.0992</v>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.534</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>0.54</v>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.7015</v>
+        <v>0.6762</v>
       </c>
       <c r="E14" t="n">
         <v>0.6236</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6697</v>
+        <v>0.662</v>
       </c>
       <c r="E15" t="n">
         <v>0.6086</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1939</v>
+        <v>0.1956</v>
       </c>
       <c r="E16" t="n">
         <v>0.1921</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0771</v>
+        <v>0.1619</v>
       </c>
       <c r="E17" t="n">
         <v>0.1367</v>
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>651.3753</v>
+        <v>611.4915999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>234.1785</v>
+        <v>192.2803</v>
       </c>
       <c r="F20" t="n">
-        <v>710.4694</v>
+        <v>614.5767</v>
       </c>
     </row>
     <row r="21">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.9219</v>
+        <v>2.8221</v>
       </c>
       <c r="E21" t="n">
-        <v>13.9307</v>
+        <v>11.6935</v>
       </c>
       <c r="F21" t="n">
-        <v>14.6658</v>
+        <v>13.0145</v>
       </c>
     </row>
   </sheetData>

--- a/results/agr_g/scores_agr_g.xlsx
+++ b/results/agr_g/scores_agr_g.xlsx
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8569</v>
+        <v>0.7911</v>
       </c>
       <c r="E2" t="n">
         <v>0.8178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.85</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8295</v>
+        <v>0.7728</v>
       </c>
       <c r="E3" t="n">
         <v>0.8033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8072</v>
+        <v>0.8268</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0897</v>
+        <v>0.0837</v>
       </c>
       <c r="E4" t="n">
         <v>0.0921</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1354</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="5">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5652</v>
+        <v>0.1902</v>
       </c>
       <c r="E5" t="n">
         <v>0.5188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0396</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9483</v>
+        <v>0.8878</v>
       </c>
       <c r="E6" t="n">
         <v>0.9520999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9644</v>
+        <v>0.9615</v>
       </c>
     </row>
     <row r="7">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.844</v>
+        <v>0.791</v>
       </c>
       <c r="E8" t="n">
         <v>0.819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.828</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="9">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.834</v>
+        <v>0.7843</v>
       </c>
       <c r="E9" t="n">
         <v>0.8098</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8174</v>
+        <v>0.8404</v>
       </c>
     </row>
     <row r="10">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1021</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>0.0992</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="11">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.472</v>
       </c>
       <c r="E11" t="n">
         <v>0.54</v>
       </c>
       <c r="F11" t="n">
-        <v>0.482</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="12">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.964</v>
+        <v>0.922</v>
       </c>
       <c r="E12" t="n">
         <v>0.97</v>
       </c>
       <c r="F12" t="n">
-        <v>0.978</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6762</v>
+        <v>0.5865</v>
       </c>
       <c r="E14" t="n">
         <v>0.6236</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6395999999999999</v>
+        <v>0.7218</v>
       </c>
     </row>
     <row r="15">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.662</v>
+        <v>0.5716</v>
       </c>
       <c r="E15" t="n">
         <v>0.6086</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6219</v>
+        <v>0.6613</v>
       </c>
     </row>
     <row r="16">
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1956</v>
+        <v>0.1723</v>
       </c>
       <c r="E16" t="n">
         <v>0.1921</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2447</v>
+        <v>0.2178</v>
       </c>
     </row>
     <row r="17">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1619</v>
+        <v>-0.032</v>
       </c>
       <c r="E17" t="n">
         <v>0.1367</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0396</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="18">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9207</v>
+        <v>0.8288</v>
       </c>
       <c r="E18" t="n">
         <v>0.9303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9485</v>
+        <v>0.9441000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>611.4915999999999</v>
+        <v>614.9311</v>
       </c>
       <c r="E20" t="n">
-        <v>192.2803</v>
+        <v>196.9467</v>
       </c>
       <c r="F20" t="n">
-        <v>614.5767</v>
+        <v>686.3402</v>
       </c>
     </row>
     <row r="21">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.8221</v>
+        <v>2.4001</v>
       </c>
       <c r="E21" t="n">
-        <v>11.6935</v>
+        <v>11.8978</v>
       </c>
       <c r="F21" t="n">
-        <v>13.0145</v>
+        <v>13.8589</v>
       </c>
     </row>
   </sheetData>
